--- a/examples/lv_97bus.xlsx
+++ b/examples/lv_97bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grid_feedback_optimizer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715970E8-824E-4E32-B12D-58604BB2C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CAA78A-75AE-4A6C-95BD-A52BCDC608C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buses" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,11 @@
     <t>s_inv</t>
   </si>
   <si>
-    <t>p_norm</t>
+    <t>q_norm</t>
   </si>
   <si>
-    <t>q_norm</t>
+    <t>p_norm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4419,7 +4420,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:H17"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4584,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4615,8 +4616,8 @@
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>22599.999999999898</v>
+      <c r="C2">
+        <v>15910.399999999931</v>
       </c>
       <c r="D2" s="4">
         <v>22599.999999999898</v>
@@ -4629,8 +4630,8 @@
       <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" s="4">
-        <v>28600</v>
+      <c r="C3">
+        <v>20134.400000000001</v>
       </c>
       <c r="D3" s="4">
         <v>28600</v>
@@ -4643,8 +4644,8 @@
       <c r="B4">
         <v>58</v>
       </c>
-      <c r="C4" s="4">
-        <v>28600</v>
+      <c r="C4">
+        <v>20134.400000000001</v>
       </c>
       <c r="D4" s="4">
         <v>28600</v>
@@ -4657,8 +4658,8 @@
       <c r="B5">
         <v>32</v>
       </c>
-      <c r="C5" s="4">
-        <v>27599.999999999898</v>
+      <c r="C5">
+        <v>19430.399999999932</v>
       </c>
       <c r="D5" s="4">
         <v>27599.999999999898</v>
@@ -4671,8 +4672,8 @@
       <c r="B6">
         <v>62</v>
       </c>
-      <c r="C6" s="4">
-        <v>11000</v>
+      <c r="C6">
+        <v>7744.0000000000009</v>
       </c>
       <c r="D6" s="4">
         <v>11000</v>
@@ -4685,8 +4686,8 @@
       <c r="B7">
         <v>50</v>
       </c>
-      <c r="C7" s="4">
-        <v>12500</v>
+      <c r="C7">
+        <v>8800</v>
       </c>
       <c r="D7" s="4">
         <v>12500</v>
@@ -4699,8 +4700,8 @@
       <c r="B8">
         <v>37</v>
       </c>
-      <c r="C8" s="4">
-        <v>4700</v>
+      <c r="C8">
+        <v>3308.8</v>
       </c>
       <c r="D8" s="4">
         <v>4700</v>
@@ -4713,8 +4714,8 @@
       <c r="B9">
         <v>69</v>
       </c>
-      <c r="C9" s="4">
-        <v>9799.9999999999909</v>
+      <c r="C9">
+        <v>6899.1999999999944</v>
       </c>
       <c r="D9" s="4">
         <v>9799.9999999999909</v>
@@ -4727,8 +4728,8 @@
       <c r="B10">
         <v>77</v>
       </c>
-      <c r="C10" s="4">
-        <v>83300</v>
+      <c r="C10">
+        <v>58643.200000000004</v>
       </c>
       <c r="D10" s="4">
         <v>83300</v>
@@ -4741,8 +4742,8 @@
       <c r="B11">
         <v>52</v>
       </c>
-      <c r="C11" s="4">
-        <v>3400</v>
+      <c r="C11">
+        <v>2393.6000000000004</v>
       </c>
       <c r="D11" s="4">
         <v>3400</v>
@@ -4755,8 +4756,8 @@
       <c r="B12">
         <v>79</v>
       </c>
-      <c r="C12" s="4">
-        <v>1400</v>
+      <c r="C12">
+        <v>985.60000000000014</v>
       </c>
       <c r="D12" s="4">
         <v>1400</v>
@@ -4769,8 +4770,8 @@
       <c r="B13">
         <v>38</v>
       </c>
-      <c r="C13" s="4">
-        <v>22599.999999999898</v>
+      <c r="C13">
+        <v>15910.399999999931</v>
       </c>
       <c r="D13" s="4">
         <v>22599.999999999898</v>
@@ -4783,8 +4784,8 @@
       <c r="B14">
         <v>55</v>
       </c>
-      <c r="C14" s="4">
-        <v>28600</v>
+      <c r="C14">
+        <v>20134.400000000001</v>
       </c>
       <c r="D14" s="4">
         <v>28600</v>
@@ -4797,8 +4798,8 @@
       <c r="B15">
         <v>46</v>
       </c>
-      <c r="C15" s="4">
-        <v>28600</v>
+      <c r="C15">
+        <v>20134.400000000001</v>
       </c>
       <c r="D15" s="4">
         <v>28600</v>
@@ -4811,8 +4812,8 @@
       <c r="B16">
         <v>9</v>
       </c>
-      <c r="C16" s="4">
-        <v>27599.999999999898</v>
+      <c r="C16">
+        <v>19430.399999999932</v>
       </c>
       <c r="D16" s="4">
         <v>27599.999999999898</v>
@@ -4825,8 +4826,8 @@
       <c r="B17">
         <v>82</v>
       </c>
-      <c r="C17" s="4">
-        <v>11000</v>
+      <c r="C17">
+        <v>7744.0000000000009</v>
       </c>
       <c r="D17" s="4">
         <v>11000</v>
@@ -4839,8 +4840,8 @@
       <c r="B18">
         <v>11</v>
       </c>
-      <c r="C18" s="4">
-        <v>12500</v>
+      <c r="C18">
+        <v>8800</v>
       </c>
       <c r="D18" s="4">
         <v>12500</v>
@@ -4853,8 +4854,8 @@
       <c r="B19">
         <v>51</v>
       </c>
-      <c r="C19" s="4">
-        <v>4700</v>
+      <c r="C19">
+        <v>3308.8</v>
       </c>
       <c r="D19" s="4">
         <v>4700</v>
@@ -4867,8 +4868,8 @@
       <c r="B20">
         <v>70</v>
       </c>
-      <c r="C20" s="4">
-        <v>9799.9999999999909</v>
+      <c r="C20">
+        <v>6899.1999999999944</v>
       </c>
       <c r="D20" s="4">
         <v>9799.9999999999909</v>
@@ -4881,8 +4882,8 @@
       <c r="B21">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
-        <v>83300</v>
+      <c r="C21">
+        <v>58643.200000000004</v>
       </c>
       <c r="D21" s="4">
         <v>83300</v>
@@ -4895,8 +4896,8 @@
       <c r="B22">
         <v>23</v>
       </c>
-      <c r="C22" s="4">
-        <v>3400</v>
+      <c r="C22">
+        <v>2393.6000000000004</v>
       </c>
       <c r="D22" s="4">
         <v>3400</v>
@@ -4909,8 +4910,8 @@
       <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
-        <v>1400</v>
+      <c r="C23">
+        <v>985.60000000000014</v>
       </c>
       <c r="D23" s="4">
         <v>1400</v>
@@ -4923,8 +4924,8 @@
       <c r="B24">
         <v>64</v>
       </c>
-      <c r="C24" s="4">
-        <v>22599.999999999898</v>
+      <c r="C24">
+        <v>15910.399999999931</v>
       </c>
       <c r="D24" s="4">
         <v>22599.999999999898</v>
@@ -4937,8 +4938,8 @@
       <c r="B25">
         <v>41</v>
       </c>
-      <c r="C25" s="4">
-        <v>28600</v>
+      <c r="C25">
+        <v>20134.400000000001</v>
       </c>
       <c r="D25" s="4">
         <v>28600</v>
@@ -4951,8 +4952,8 @@
       <c r="B26">
         <v>57</v>
       </c>
-      <c r="C26" s="4">
-        <v>28600</v>
+      <c r="C26">
+        <v>20134.400000000001</v>
       </c>
       <c r="D26" s="4">
         <v>28600</v>
@@ -4965,8 +4966,8 @@
       <c r="B27">
         <v>28</v>
       </c>
-      <c r="C27" s="4">
-        <v>27599.999999999898</v>
+      <c r="C27">
+        <v>19430.399999999932</v>
       </c>
       <c r="D27" s="4">
         <v>27599.999999999898</v>
@@ -4979,8 +4980,8 @@
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
-        <v>11000</v>
+      <c r="C28">
+        <v>7744.0000000000009</v>
       </c>
       <c r="D28" s="4">
         <v>11000</v>
@@ -4993,8 +4994,8 @@
       <c r="B29">
         <v>61</v>
       </c>
-      <c r="C29" s="4">
-        <v>12500</v>
+      <c r="C29">
+        <v>8800</v>
       </c>
       <c r="D29" s="4">
         <v>12500</v>
@@ -5007,8 +5008,8 @@
       <c r="B30">
         <v>60</v>
       </c>
-      <c r="C30" s="4">
-        <v>4700</v>
+      <c r="C30">
+        <v>3308.8</v>
       </c>
       <c r="D30" s="4">
         <v>4700</v>
@@ -5021,8 +5022,8 @@
       <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31" s="4">
-        <v>9799.9999999999909</v>
+      <c r="C31">
+        <v>6899.1999999999944</v>
       </c>
       <c r="D31" s="4">
         <v>9799.9999999999909</v>
@@ -5035,8 +5036,8 @@
       <c r="B32">
         <v>92</v>
       </c>
-      <c r="C32" s="4">
-        <v>83300</v>
+      <c r="C32">
+        <v>58643.200000000004</v>
       </c>
       <c r="D32" s="4">
         <v>83300</v>
@@ -5049,8 +5050,8 @@
       <c r="B33">
         <v>15</v>
       </c>
-      <c r="C33" s="4">
-        <v>3400</v>
+      <c r="C33">
+        <v>2393.6000000000004</v>
       </c>
       <c r="D33" s="4">
         <v>3400</v>
@@ -5063,8 +5064,8 @@
       <c r="B34">
         <v>34</v>
       </c>
-      <c r="C34" s="4">
-        <v>1400</v>
+      <c r="C34">
+        <v>985.60000000000014</v>
       </c>
       <c r="D34" s="4">
         <v>1400</v>
@@ -5077,8 +5078,8 @@
       <c r="B35">
         <v>48</v>
       </c>
-      <c r="C35" s="4">
-        <v>22599.999999999898</v>
+      <c r="C35">
+        <v>15910.399999999931</v>
       </c>
       <c r="D35" s="4">
         <v>22599.999999999898</v>
@@ -5091,8 +5092,8 @@
       <c r="B36">
         <v>95</v>
       </c>
-      <c r="C36" s="4">
-        <v>28600</v>
+      <c r="C36">
+        <v>20134.400000000001</v>
       </c>
       <c r="D36" s="4">
         <v>28600</v>
@@ -5105,8 +5106,8 @@
       <c r="B37">
         <v>49</v>
       </c>
-      <c r="C37" s="4">
-        <v>28600</v>
+      <c r="C37">
+        <v>20134.400000000001</v>
       </c>
       <c r="D37" s="4">
         <v>28600</v>
@@ -5119,8 +5120,8 @@
       <c r="B38">
         <v>42</v>
       </c>
-      <c r="C38" s="4">
-        <v>27599.999999999898</v>
+      <c r="C38">
+        <v>19430.399999999932</v>
       </c>
       <c r="D38" s="4">
         <v>27599.999999999898</v>
@@ -5133,8 +5134,8 @@
       <c r="B39">
         <v>63</v>
       </c>
-      <c r="C39" s="4">
-        <v>11000</v>
+      <c r="C39">
+        <v>7744.0000000000009</v>
       </c>
       <c r="D39" s="4">
         <v>11000</v>
@@ -5147,8 +5148,8 @@
       <c r="B40">
         <v>26</v>
       </c>
-      <c r="C40" s="4">
-        <v>12500</v>
+      <c r="C40">
+        <v>8800</v>
       </c>
       <c r="D40" s="4">
         <v>12500</v>
@@ -5161,8 +5162,8 @@
       <c r="B41">
         <v>6</v>
       </c>
-      <c r="C41" s="4">
-        <v>4700</v>
+      <c r="C41">
+        <v>3308.8</v>
       </c>
       <c r="D41" s="4">
         <v>4700</v>
@@ -5175,8 +5176,8 @@
       <c r="B42">
         <v>14</v>
       </c>
-      <c r="C42" s="4">
-        <v>9799.9999999999909</v>
+      <c r="C42">
+        <v>6899.1999999999944</v>
       </c>
       <c r="D42" s="4">
         <v>9799.9999999999909</v>
@@ -5189,8 +5190,8 @@
       <c r="B43">
         <v>24</v>
       </c>
-      <c r="C43" s="4">
-        <v>83300</v>
+      <c r="C43">
+        <v>58643.200000000004</v>
       </c>
       <c r="D43" s="4">
         <v>83300</v>
@@ -5203,8 +5204,8 @@
       <c r="B44">
         <v>53</v>
       </c>
-      <c r="C44" s="4">
-        <v>3400</v>
+      <c r="C44">
+        <v>2393.6000000000004</v>
       </c>
       <c r="D44" s="4">
         <v>3400</v>
@@ -5217,8 +5218,8 @@
       <c r="B45">
         <v>89</v>
       </c>
-      <c r="C45" s="4">
-        <v>1400</v>
+      <c r="C45">
+        <v>985.60000000000014</v>
       </c>
       <c r="D45" s="4">
         <v>1400</v>
@@ -5231,8 +5232,8 @@
       <c r="B46">
         <v>80</v>
       </c>
-      <c r="C46" s="4">
-        <v>22599.999999999898</v>
+      <c r="C46">
+        <v>15910.399999999931</v>
       </c>
       <c r="D46" s="4">
         <v>22599.999999999898</v>
@@ -5245,8 +5246,8 @@
       <c r="B47">
         <v>90</v>
       </c>
-      <c r="C47" s="4">
-        <v>28600</v>
+      <c r="C47">
+        <v>20134.400000000001</v>
       </c>
       <c r="D47" s="4">
         <v>28600</v>
@@ -5259,8 +5260,8 @@
       <c r="B48">
         <v>68</v>
       </c>
-      <c r="C48" s="4">
-        <v>28600</v>
+      <c r="C48">
+        <v>20134.400000000001</v>
       </c>
       <c r="D48" s="4">
         <v>28600</v>
@@ -5273,8 +5274,8 @@
       <c r="B49">
         <v>65</v>
       </c>
-      <c r="C49" s="4">
-        <v>27599.999999999898</v>
+      <c r="C49">
+        <v>19430.399999999932</v>
       </c>
       <c r="D49" s="4">
         <v>27599.999999999898</v>
@@ -5287,8 +5288,8 @@
       <c r="B50">
         <v>74</v>
       </c>
-      <c r="C50" s="4">
-        <v>11000</v>
+      <c r="C50">
+        <v>7744.0000000000009</v>
       </c>
       <c r="D50" s="4">
         <v>11000</v>
@@ -5301,8 +5302,8 @@
       <c r="B51">
         <v>91</v>
       </c>
-      <c r="C51" s="4">
-        <v>12500</v>
+      <c r="C51">
+        <v>8800</v>
       </c>
       <c r="D51" s="4">
         <v>12500</v>
@@ -5315,8 +5316,8 @@
       <c r="B52">
         <v>17</v>
       </c>
-      <c r="C52" s="4">
-        <v>4700</v>
+      <c r="C52">
+        <v>3308.8</v>
       </c>
       <c r="D52" s="4">
         <v>4700</v>
@@ -5329,8 +5330,8 @@
       <c r="B53">
         <v>10</v>
       </c>
-      <c r="C53" s="4">
-        <v>9799.9999999999909</v>
+      <c r="C53">
+        <v>6899.1999999999944</v>
       </c>
       <c r="D53" s="4">
         <v>9799.9999999999909</v>
@@ -5343,8 +5344,8 @@
       <c r="B54">
         <v>75</v>
       </c>
-      <c r="C54" s="4">
-        <v>83300</v>
+      <c r="C54">
+        <v>58643.200000000004</v>
       </c>
       <c r="D54" s="4">
         <v>83300</v>
@@ -5357,8 +5358,8 @@
       <c r="B55">
         <v>76</v>
       </c>
-      <c r="C55" s="4">
-        <v>3400</v>
+      <c r="C55">
+        <v>2393.6000000000004</v>
       </c>
       <c r="D55" s="4">
         <v>3400</v>
@@ -5375,7 +5376,7 @@
   <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5388,10 +5389,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5402,10 +5403,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -5416,10 +5417,10 @@
         <v>62</v>
       </c>
       <c r="C3">
-        <v>7900</v>
+        <v>3950</v>
       </c>
       <c r="D3">
-        <v>3100</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -5430,10 +5431,10 @@
         <v>93</v>
       </c>
       <c r="C4">
-        <v>9900</v>
+        <v>4950</v>
       </c>
       <c r="D4">
-        <v>3900</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -5444,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -5458,10 +5459,10 @@
         <v>96</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D6">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -5472,10 +5473,10 @@
         <v>37</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -5486,10 +5487,10 @@
         <v>86</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D8">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -5500,10 +5501,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -5514,10 +5515,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>9900</v>
+        <v>4950</v>
       </c>
       <c r="D10">
-        <v>3900</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -5528,10 +5529,10 @@
         <v>81</v>
       </c>
       <c r="C11">
-        <v>4900</v>
+        <v>2450</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -5542,10 +5543,10 @@
         <v>54</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -5556,10 +5557,10 @@
         <v>70</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -5570,10 +5571,10 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D14">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -5584,10 +5585,10 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D15">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -5598,10 +5599,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D16">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -5612,10 +5613,10 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -5626,10 +5627,10 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D18">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -5640,10 +5641,10 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -5654,10 +5655,10 @@
         <v>95</v>
       </c>
       <c r="C20">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D20">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -5668,10 +5669,10 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D21">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -5682,10 +5683,10 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -5696,10 +5697,10 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D23">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -5710,10 +5711,10 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D24">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -5724,10 +5725,10 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D25">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -5738,10 +5739,10 @@
         <v>67</v>
       </c>
       <c r="C26">
-        <v>8900</v>
+        <v>4450</v>
       </c>
       <c r="D26">
-        <v>3500</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -5752,10 +5753,10 @@
         <v>72</v>
       </c>
       <c r="C27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D27">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -5766,10 +5767,10 @@
         <v>35</v>
       </c>
       <c r="C28">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D28">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -5780,10 +5781,10 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D29">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -5794,10 +5795,10 @@
         <v>15</v>
       </c>
       <c r="C30">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D30">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -5808,10 +5809,10 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D31">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -5822,10 +5823,10 @@
         <v>92</v>
       </c>
       <c r="C32">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D32">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -5836,10 +5837,10 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D33">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -5850,10 +5851,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D34">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -5864,10 +5865,10 @@
         <v>52</v>
       </c>
       <c r="C35">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D35">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -5878,10 +5879,10 @@
         <v>65</v>
       </c>
       <c r="C36">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D36">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -5892,10 +5893,10 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D37">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -5906,10 +5907,10 @@
         <v>51</v>
       </c>
       <c r="C38">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="D38">
-        <v>2400</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -5920,10 +5921,10 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D39">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -5934,10 +5935,10 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -5948,10 +5949,10 @@
         <v>58</v>
       </c>
       <c r="C41">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D41">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -5962,10 +5963,10 @@
         <v>56</v>
       </c>
       <c r="C42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D42">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -5976,10 +5977,10 @@
         <v>71</v>
       </c>
       <c r="C43">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D43">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -5990,10 +5991,10 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D44">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -6004,10 +6005,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D45">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -6018,10 +6019,10 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D46">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -6032,10 +6033,10 @@
         <v>73</v>
       </c>
       <c r="C47">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D47">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -6046,10 +6047,10 @@
         <v>78</v>
       </c>
       <c r="C48">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D48">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -6060,10 +6061,10 @@
         <v>64</v>
       </c>
       <c r="C49">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D49">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -6074,10 +6075,10 @@
         <v>32</v>
       </c>
       <c r="C50">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D50">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -6088,10 +6089,10 @@
         <v>79</v>
       </c>
       <c r="C51">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D51">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -6102,10 +6103,10 @@
         <v>77</v>
       </c>
       <c r="C52">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D52">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -6116,10 +6117,10 @@
         <v>42</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D53">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -6130,10 +6131,10 @@
         <v>83</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D54">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -6144,10 +6145,10 @@
         <v>27</v>
       </c>
       <c r="C55">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D55">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -6158,10 +6159,10 @@
         <v>30</v>
       </c>
       <c r="C56">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D56">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -6172,10 +6173,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D57">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -6186,10 +6187,10 @@
         <v>69</v>
       </c>
       <c r="C58">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D58">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -6200,10 +6201,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D59">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -6214,10 +6215,10 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D60">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -6228,10 +6229,10 @@
         <v>41</v>
       </c>
       <c r="C61">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D61">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -6242,10 +6243,10 @@
         <v>40</v>
       </c>
       <c r="C62">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -6256,10 +6257,10 @@
         <v>82</v>
       </c>
       <c r="C63">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D63">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -6270,10 +6271,10 @@
         <v>94</v>
       </c>
       <c r="C64">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -6284,10 +6285,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D65">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -6298,10 +6299,10 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D66">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -6312,10 +6313,10 @@
         <v>18</v>
       </c>
       <c r="C67">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -6326,10 +6327,10 @@
         <v>84</v>
       </c>
       <c r="C68">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -6340,10 +6341,10 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D69">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -6354,10 +6355,10 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D70">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -6368,10 +6369,10 @@
         <v>85</v>
       </c>
       <c r="C71">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D71">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -6382,10 +6383,10 @@
         <v>24</v>
       </c>
       <c r="C72">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -6396,10 +6397,10 @@
         <v>33</v>
       </c>
       <c r="C73">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D73">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -6410,10 +6411,10 @@
         <v>31</v>
       </c>
       <c r="C74">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D74">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -6424,10 +6425,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D75">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -6438,10 +6439,10 @@
         <v>17</v>
       </c>
       <c r="C76">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D76">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -6452,10 +6453,10 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D77">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -6466,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D78">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -6480,10 +6481,10 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D79">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -6494,10 +6495,10 @@
         <v>75</v>
       </c>
       <c r="C80">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D80">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -6508,10 +6509,10 @@
         <v>89</v>
       </c>
       <c r="C81">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D81">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -6522,10 +6523,10 @@
         <v>43</v>
       </c>
       <c r="C82">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D82">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -6536,10 +6537,10 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D83">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
@@ -6550,10 +6551,10 @@
         <v>29</v>
       </c>
       <c r="C84">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D84">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -6564,10 +6565,10 @@
         <v>55</v>
       </c>
       <c r="C85">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D85">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -6578,10 +6579,10 @@
         <v>61</v>
       </c>
       <c r="C86">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D86">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -6592,10 +6593,10 @@
         <v>57</v>
       </c>
       <c r="C87">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D87">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -6606,10 +6607,10 @@
         <v>59</v>
       </c>
       <c r="C88">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D88">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -6620,10 +6621,10 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D89">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -6634,10 +6635,10 @@
         <v>74</v>
       </c>
       <c r="C90">
-        <v>6900</v>
+        <v>3450</v>
       </c>
       <c r="D90">
-        <v>2800</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
@@ -6648,10 +6649,10 @@
         <v>46</v>
       </c>
       <c r="C91">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D91">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
@@ -6662,10 +6663,10 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D92">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
@@ -6676,10 +6677,10 @@
         <v>22</v>
       </c>
       <c r="C93">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D93">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
@@ -6690,10 +6691,10 @@
         <v>53</v>
       </c>
       <c r="C94">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="D94">
-        <v>2400</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -6704,10 +6705,10 @@
         <v>39</v>
       </c>
       <c r="C95">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D95">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -6718,10 +6719,10 @@
         <v>47</v>
       </c>
       <c r="C96">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D96">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -6732,10 +6733,10 @@
         <v>19</v>
       </c>
       <c r="C97">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D97">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -6746,10 +6747,10 @@
         <v>90</v>
       </c>
       <c r="C98">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D98">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -6760,10 +6761,10 @@
         <v>13</v>
       </c>
       <c r="C99">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D99">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -6774,10 +6775,10 @@
         <v>88</v>
       </c>
       <c r="C100">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D100">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -6788,10 +6789,10 @@
         <v>49</v>
       </c>
       <c r="C101">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D101">
-        <v>1500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -6802,10 +6803,10 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D102">
-        <v>1500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
@@ -6816,10 +6817,10 @@
         <v>96</v>
       </c>
       <c r="C103">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D103">
-        <v>1500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -6830,10 +6831,10 @@
         <v>58</v>
       </c>
       <c r="C104">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D104">
-        <v>1500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -6844,10 +6845,10 @@
         <v>65</v>
       </c>
       <c r="C105">
-        <v>4900</v>
+        <v>2450</v>
       </c>
       <c r="D105">
-        <v>2000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -6858,10 +6859,10 @@
         <v>58</v>
       </c>
       <c r="C106">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D106">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -6872,10 +6873,10 @@
         <v>96</v>
       </c>
       <c r="C107">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D107">
-        <v>1400</v>
+        <v>740</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -6886,10 +6887,10 @@
         <v>87</v>
       </c>
       <c r="C108">
-        <v>10900</v>
+        <v>5450</v>
       </c>
       <c r="D108">
-        <v>4300</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -6900,10 +6901,10 @@
         <v>49</v>
       </c>
       <c r="C109">
-        <v>10900</v>
+        <v>5450</v>
       </c>
       <c r="D109">
-        <v>4300</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -6914,10 +6915,10 @@
         <v>41</v>
       </c>
       <c r="C110">
-        <v>21800</v>
+        <v>10900</v>
       </c>
       <c r="D110">
-        <v>8600</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -6928,10 +6929,10 @@
         <v>31</v>
       </c>
       <c r="C111">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D111">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -6942,10 +6943,10 @@
         <v>46</v>
       </c>
       <c r="C112">
-        <v>4900</v>
+        <v>2450</v>
       </c>
       <c r="D112">
-        <v>2000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -6956,10 +6957,10 @@
         <v>31</v>
       </c>
       <c r="C113">
-        <v>10900</v>
+        <v>5450</v>
       </c>
       <c r="D113">
-        <v>4300</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -6970,10 +6971,10 @@
         <v>44</v>
       </c>
       <c r="C114">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D114">
-        <v>1400</v>
+        <v>740</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -6984,10 +6985,10 @@
         <v>15</v>
       </c>
       <c r="C115">
-        <v>21800</v>
+        <v>10900</v>
       </c>
       <c r="D115">
-        <v>8600</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -6998,10 +6999,10 @@
         <v>92</v>
       </c>
       <c r="C116">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D116">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -7012,10 +7013,10 @@
         <v>69</v>
       </c>
       <c r="C117">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D117">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -7026,10 +7027,10 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D118">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -7040,10 +7041,10 @@
         <v>55</v>
       </c>
       <c r="C119">
-        <v>3700</v>
+        <v>1850</v>
       </c>
       <c r="D119">
-        <v>1400</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
